--- a/comparison_results/PSO_PID_No_Disturbance_Test_6.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_6.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04534392395640545</v>
+        <v>0.04330660435588771</v>
       </c>
       <c r="C2" t="n">
-        <v>1.021021021021021</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7790086823347764</v>
+        <v>0.5083106691044925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005382262464658538</v>
+        <v>0.003307648453439653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4358067606741737</v>
+        <v>0.4161872816731751</v>
       </c>
       <c r="H2" t="n">
-        <v>1.255347433733769</v>
+        <v>1.214409319998867</v>
       </c>
       <c r="I2" t="n">
-        <v>0.451467060574137</v>
+        <v>0.4470437960637257</v>
       </c>
       <c r="J2" t="n">
-        <v>11.31668697644094</v>
+        <v>11.7751389030392</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9967801709310944</v>
+        <v>0.9998288306198164</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>7.491946831753265</v>
+        <v>9.570892473867559</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001030190019851187</v>
+        <v>0.093570275414052</v>
       </c>
       <c r="O2" t="n">
         <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5923363908646939</v>
+        <v>0.9607086118684511</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06369913289392926</v>
+        <v>0.05237621409844254</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8154188394031889</v>
+        <v>0.4835327674634295</v>
       </c>
       <c r="S2" t="n">
-        <v>9.57103618821532</v>
+        <v>6.636803590811354</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001</v>
+        <v>0.00134263899977566</v>
       </c>
       <c r="U2" t="n">
-        <v>1.998960735141189</v>
+        <v>0.1014368877002653</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0470758380794629</v>
+        <v>0.04173145153451659</v>
       </c>
       <c r="C3" t="n">
-        <v>1.011011011011011</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D3" t="n">
-        <v>1.55202405402413</v>
+        <v>0.0427949344445544</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005661360662570725</v>
+        <v>0.002125859717663603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4347993571523488</v>
+        <v>0.4035802592992032</v>
       </c>
       <c r="H3" t="n">
-        <v>1.259720470669244</v>
+        <v>1.226583090210793</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4515904269681695</v>
+        <v>0.4416229840011345</v>
       </c>
       <c r="J3" t="n">
-        <v>11.24486077563715</v>
+        <v>12.21985938496265</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9963497548145959</v>
+        <v>0.9957392603466818</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6582037001109666</v>
+        <v>0.6073737542925628</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08948566110528181</v>
+        <v>0.001257694235438832</v>
       </c>
       <c r="O3" t="n">
-        <v>1.978884863015299</v>
+        <v>0.1000433380836682</v>
       </c>
       <c r="P3" t="n">
-        <v>1.424644862294796</v>
+        <v>6.861810595728308</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06478405594460934</v>
+        <v>0.093361062013479</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52978390094196</v>
+        <v>0.1006548363978295</v>
       </c>
       <c r="S3" t="n">
-        <v>9.591642394341388</v>
+        <v>9.995706774513758</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0732995773648155</v>
+        <v>0.09975892616738845</v>
       </c>
       <c r="U3" t="n">
-        <v>0.233043758578247</v>
+        <v>0.1153922154975783</v>
       </c>
     </row>
     <row r="4">
@@ -675,34 +675,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08094831798118583</v>
+        <v>0.04279932803729163</v>
       </c>
       <c r="C4" t="n">
-        <v>2.202202202202202</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D4" t="n">
-        <v>3.486651035816504</v>
+        <v>0.4896148440910508</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0037222394881541</v>
+        <v>0.004513629275061113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3840687444392417</v>
+        <v>0.4081226762213457</v>
       </c>
       <c r="H4" t="n">
-        <v>1.220503329151464</v>
+        <v>1.20081224171462</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4354219341311</v>
+        <v>0.4448852322464431</v>
       </c>
       <c r="J4" t="n">
-        <v>12.84056410931149</v>
+        <v>11.97027870426656</v>
       </c>
       <c r="K4" t="n">
-        <v>1.03079098891507</v>
+        <v>0.9972362058026433</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
@@ -711,28 +711,28 @@
         <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09997998438785347</v>
+        <v>0.09997048147122291</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1</v>
+        <v>0.1026607865195032</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>1.099148587989603</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1</v>
+        <v>0.05867526126140311</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1</v>
+        <v>0.4917399580201872</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>5.685302728556516</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1</v>
+        <v>0.05402756493063533</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0.1226015673394179</v>
       </c>
     </row>
     <row r="5">
@@ -740,34 +740,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08078178920188293</v>
+        <v>0.08113070417204364</v>
       </c>
       <c r="C5" t="n">
         <v>2.012012012012012</v>
       </c>
       <c r="D5" t="n">
-        <v>5.913505820228977</v>
+        <v>6.231363111220141</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005725693897480923</v>
+        <v>0.006562984332549486</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3129934404937839</v>
+        <v>0.3052597140913868</v>
       </c>
       <c r="H5" t="n">
-        <v>1.130620571883302</v>
+        <v>1.098055801858885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4129216035456648</v>
+        <v>0.4112608787550689</v>
       </c>
       <c r="J5" t="n">
-        <v>14.89971610369683</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9984829222502715</v>
+        <v>1.00561723553996</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
@@ -776,28 +776,28 @@
         <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09787858806928709</v>
+        <v>0.01467617455414529</v>
       </c>
       <c r="O5" t="n">
-        <v>1.877380652984034</v>
+        <v>1.34113290810728</v>
       </c>
       <c r="P5" t="n">
-        <v>6.758567295282321</v>
+        <v>0.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09788651365702604</v>
+        <v>0.001</v>
       </c>
       <c r="R5" t="n">
-        <v>1.920686130769386</v>
+        <v>1.476028137440327</v>
       </c>
       <c r="S5" t="n">
-        <v>6.76356262511993</v>
+        <v>9.980742499902997</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09103459851813699</v>
+        <v>0.08574939401971469</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1132681371555002</v>
+        <v>0.5631467346420057</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0490743379758746</v>
+        <v>0.04996963735426105</v>
       </c>
       <c r="C6" t="n">
-        <v>1.051051051051051</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D6" t="n">
-        <v>1.608440298117149</v>
+        <v>0.9325806868768539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009315268028138656</v>
+        <v>0.01534766131836766</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4635146470525636</v>
+        <v>0.4939866815047551</v>
       </c>
       <c r="H6" t="n">
-        <v>1.31675101752341</v>
+        <v>1.391237956141389</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4578437840338456</v>
+        <v>0.4631705029943709</v>
       </c>
       <c r="J6" t="n">
-        <v>10.862266455823</v>
+        <v>10.54060309012415</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9949461981521455</v>
+        <v>0.9878430167747991</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>7.150140179544619</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002454517761312103</v>
+        <v>0.09995903481869026</v>
       </c>
       <c r="O6" t="n">
+        <v>1.959451949363969</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.082103351704073</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.07083636896815133</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.995996406128446</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.478049125202432</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.8064332448293576</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0734845362158236</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.998368742402808</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.1209268038286734</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.04247401311857197</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.473423295049038</v>
+        <v>1.999973942032896</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07942199587659078</v>
+        <v>0.04761430247502933</v>
       </c>
       <c r="C7" t="n">
-        <v>1.991991991991992</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D7" t="n">
-        <v>5.900432207905713</v>
+        <v>1.732238201810983</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003966466110134448</v>
+        <v>0.01939171233640359</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3031253002897182</v>
+        <v>0.4358827016810398</v>
       </c>
       <c r="H7" t="n">
-        <v>1.068439124446248</v>
+        <v>1.306361494985752</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4123295156340863</v>
+        <v>0.4486803891588717</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>11.50373022457552</v>
       </c>
       <c r="K7" t="n">
-        <v>1.002251015614547</v>
+        <v>0.9900332447793033</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>9.999987196511801</v>
+        <v>0.5401097734639616</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05111014918883056</v>
+        <v>0.02900665203338496</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6140617578436144</v>
+        <v>0.6999990801808104</v>
       </c>
       <c r="P7" t="n">
-        <v>5.957888413185343</v>
+        <v>1.27131630126175</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04243243320814344</v>
+        <v>0.09191818739739202</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1</v>
+        <v>1.998585128413869</v>
       </c>
       <c r="S7" t="n">
-        <v>9.159557672668088</v>
+        <v>9.441055555760233</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0400178224141896</v>
+        <v>0.09775272757405636</v>
       </c>
       <c r="U7" t="n">
-        <v>1.771530882509348</v>
+        <v>0.9336925466414736</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04693563423900442</v>
+        <v>0.04807620098875125</v>
       </c>
       <c r="C8" t="n">
-        <v>1.031031031031031</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="D8" t="n">
-        <v>1.21751941028144</v>
+        <v>0.4364776087220435</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005966764214028373</v>
+        <v>0.003009254251271552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.439958019239174</v>
+        <v>0.4912896427257902</v>
       </c>
       <c r="H8" t="n">
-        <v>1.273301587306334</v>
+        <v>1.360082498063173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4524510562967363</v>
+        <v>0.4630297950431067</v>
       </c>
       <c r="J8" t="n">
-        <v>11.24999961847739</v>
+        <v>10.6572111911978</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9959393879177824</v>
+        <v>1.000651134856117</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8027372903010698</v>
+        <v>5.814884041767809</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03844398938903969</v>
+        <v>0.1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.656075286393515</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>7.097134777787696</v>
+        <v>5.75423229444934</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0903343762658982</v>
+        <v>0.08156342842059909</v>
       </c>
       <c r="R8" t="n">
-        <v>1.195677590446423</v>
+        <v>0.1360134374707104</v>
       </c>
       <c r="S8" t="n">
-        <v>5.999426543989723</v>
+        <v>0.1</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05956407839062196</v>
+        <v>0.002962418290287011</v>
       </c>
       <c r="U8" t="n">
-        <v>1.048309553781954</v>
+        <v>1.819640174895103</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04738490499770548</v>
+        <v>0.04757701794805697</v>
       </c>
       <c r="C9" t="n">
         <v>1.011011011011011</v>
       </c>
       <c r="D9" t="n">
-        <v>1.669982873924951</v>
+        <v>1.559780877919543</v>
       </c>
       <c r="E9" t="n">
         <v>0.6806806806806807</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005978347734017413</v>
+        <v>0.009975422589631903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4359212827052986</v>
+        <v>0.4428841535417637</v>
       </c>
       <c r="H9" t="n">
-        <v>1.260405289927307</v>
+        <v>1.295029576821921</v>
       </c>
       <c r="I9" t="n">
-        <v>0.45199263628428</v>
+        <v>0.452158635574269</v>
       </c>
       <c r="J9" t="n">
-        <v>11.20767467198444</v>
+        <v>11.212629804574</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9968374913758111</v>
+        <v>0.9942935536815645</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9769029998235875</v>
+        <v>0.3158994348801892</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03981292145212181</v>
+        <v>0.084368153938636</v>
       </c>
       <c r="O9" t="n">
-        <v>1.024332297607421</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.265012583286689</v>
+        <v>1.383801031162245</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08192646337172529</v>
+        <v>0.03953293970235081</v>
       </c>
       <c r="R9" t="n">
-        <v>1.981084057413246</v>
+        <v>1.200262274782981</v>
       </c>
       <c r="S9" t="n">
-        <v>2.700895127329999</v>
+        <v>10</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001</v>
+        <v>0.005773136496192475</v>
       </c>
       <c r="U9" t="n">
-        <v>1.107036745748208</v>
+        <v>1.011379225628335</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07955718251819253</v>
+        <v>0.04378280271334779</v>
       </c>
       <c r="C10" t="n">
-        <v>2.032032032032032</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D10" t="n">
-        <v>5.018516430655939</v>
+        <v>0.1475477654131119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01153552361149953</v>
+        <v>0.006991651553158376</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3322936749407666</v>
+        <v>0.4321338392073039</v>
       </c>
       <c r="H10" t="n">
-        <v>1.163889781283844</v>
+        <v>1.238199066240217</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4195618555755225</v>
+        <v>0.4507416673071774</v>
       </c>
       <c r="J10" t="n">
-        <v>14.10183785150996</v>
+        <v>11.46786753977416</v>
       </c>
       <c r="K10" t="n">
-        <v>1.000606108571308</v>
+        <v>0.9953094632226389</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.99075819267175</v>
       </c>
       <c r="M10" t="n">
-        <v>5.353923303601122</v>
+        <v>7.334446524842905</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04239655748164525</v>
+        <v>0.06753735426823743</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0.1000608944505962</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1</v>
+        <v>0.9527801233285268</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08078562218451291</v>
+        <v>0.04181718373462313</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38280386182542</v>
+        <v>0.449280362429807</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>1.757356005048303</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0745623828851323</v>
+        <v>0.06845670414491561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1</v>
+        <v>0.1001458924700971</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04950585479102428</v>
+        <v>0.04349402943686489</v>
       </c>
       <c r="C11" t="n">
-        <v>1.071071071071071</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D11" t="n">
-        <v>1.61669778431003</v>
+        <v>0.1703206714120675</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00547072086542687</v>
+        <v>0.001395656806993053</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4709455086174231</v>
+        <v>0.4299162388585724</v>
       </c>
       <c r="H11" t="n">
-        <v>1.306608480830825</v>
+        <v>1.211429663061287</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4600626829966559</v>
+        <v>0.4506388287401862</v>
       </c>
       <c r="J11" t="n">
-        <v>10.74184058540817</v>
+        <v>11.47554148606038</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9983036151953542</v>
+        <v>1.00178923594714</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.937446631618104</v>
+        <v>7.782945457056502</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06702559175430665</v>
+        <v>0.08122867309563706</v>
       </c>
       <c r="O11" t="n">
-        <v>1.988913586960049</v>
+        <v>0.1241138072678146</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>1.038736710461514</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08154676791178113</v>
+        <v>0.04136974271420952</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5988085158261238</v>
+        <v>0.3598803659688806</v>
       </c>
       <c r="S11" t="n">
-        <v>7.569512804639098</v>
+        <v>2.440135439277411</v>
       </c>
       <c r="T11" t="n">
-        <v>0.059878827474387</v>
+        <v>0.09999998644380807</v>
       </c>
       <c r="U11" t="n">
-        <v>1.479503903533725</v>
+        <v>0.5424328867349975</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04835420131260974</v>
+        <v>0.05089283411212323</v>
       </c>
       <c r="C12" t="n">
-        <v>1.051051051051051</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D12" t="n">
-        <v>1.291935002668989</v>
+        <v>0.5821443085176092</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01185101111679713</v>
+        <v>0.02078785857083268</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4651030248378584</v>
+        <v>0.5176242796719451</v>
       </c>
       <c r="H12" t="n">
-        <v>1.321805792437736</v>
+        <v>1.445645853095256</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4571859382177704</v>
+        <v>0.466808051115397</v>
       </c>
       <c r="J12" t="n">
-        <v>10.95739580547933</v>
+        <v>10.36965331175351</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9956097476329626</v>
+        <v>0.9820152529664342</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
+        <v>1.262822327492879</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04231641595670376</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.475233882488918</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.999999931682286</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.09995281995826708</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.331419251479958</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.164503448061992</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.09994480947934306</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.08068744916049202</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.991735338790481</v>
-      </c>
-      <c r="P12" t="n">
-        <v>7.005354439076233</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.03692009008459492</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.1027564324535312</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.09981294584240771</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.37040874940386</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04458737668598768</v>
+        <v>0.04920224342147605</v>
       </c>
       <c r="C13" t="n">
-        <v>1.021021021021021</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6057417239519758</v>
+        <v>1.610168740012341</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003595616960623618</v>
+        <v>0.001711539468163707</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4275292877819175</v>
+        <v>0.4732053864420339</v>
       </c>
       <c r="H13" t="n">
-        <v>1.232788032933811</v>
+        <v>1.28272142899666</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4497921738206106</v>
+        <v>0.4610402220618739</v>
       </c>
       <c r="J13" t="n">
-        <v>11.48712338091921</v>
+        <v>10.63698515312464</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9983746092750265</v>
+        <v>1.001793762140577</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>7.376571823324158</v>
+        <v>9.7154790478744</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04847461471624021</v>
+        <v>0.001214267818890403</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2036805772903564</v>
+        <v>0.946353401329536</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9306841854384749</v>
+        <v>6.366936906870811</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04098727302169879</v>
+        <v>0.04523017794445879</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3641434518828523</v>
+        <v>0.5460395062745668</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7568158839102427</v>
+        <v>0.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02406683132495955</v>
+        <v>0.01619868468208071</v>
       </c>
       <c r="U13" t="n">
-        <v>1.615096519221427</v>
+        <v>0.9513247025726117</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07985431522426555</v>
+        <v>0.04283102369432237</v>
       </c>
       <c r="C14" t="n">
-        <v>2.042042042042042</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D14" t="n">
-        <v>5.347897238488439</v>
+        <v>0.3332648045102538</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005615406626315123</v>
+        <v>0.003447640929161042</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3169468515114622</v>
+        <v>0.4035190723298833</v>
       </c>
       <c r="H14" t="n">
-        <v>1.107902945554886</v>
+        <v>1.196419303709783</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4124339456943515</v>
+        <v>0.4435535957269127</v>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>11.95931706765622</v>
       </c>
       <c r="K14" t="n">
-        <v>1.003421491105192</v>
+        <v>0.9973503145651761</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>5.325358260828202</v>
+        <v>0.9797789417776219</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01149696091209657</v>
+        <v>0.05150680725003638</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0.391844866701389</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>4.512251510223511</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001</v>
+        <v>0.09906959062406645</v>
       </c>
       <c r="R14" t="n">
-        <v>1.481966179826014</v>
+        <v>0.874852801388451</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1</v>
+        <v>3.580138451652699</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06241218452062962</v>
+        <v>0.001663821176336277</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1384331466609427</v>
+        <v>0.3764753903500692</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05128639724474464</v>
+        <v>0.04605679344581231</v>
       </c>
       <c r="C15" t="n">
-        <v>1.091091091091091</v>
+        <v>1.011011011011011</v>
       </c>
       <c r="D15" t="n">
-        <v>1.546901446403197</v>
+        <v>0.8137300332394303</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01739098644404194</v>
+        <v>0.01930441678806721</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4945877125956073</v>
+        <v>0.4494608697022967</v>
       </c>
       <c r="H15" t="n">
-        <v>1.413514223078506</v>
+        <v>1.319991099114158</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4626424232870242</v>
+        <v>0.4497458731228796</v>
       </c>
       <c r="J15" t="n">
-        <v>10.59349266876847</v>
+        <v>11.41051203668001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9857726515163049</v>
+        <v>0.9970661519138716</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.999999737941267</v>
       </c>
       <c r="M15" t="n">
-        <v>9.999892518300255</v>
+        <v>0.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02117281924370324</v>
+        <v>0.06690262206098671</v>
       </c>
       <c r="O15" t="n">
-        <v>1.644541691845318</v>
+        <v>0.864176980394276</v>
       </c>
       <c r="P15" t="n">
-        <v>5.163508799603125</v>
+        <v>3.770383918071234</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001</v>
+        <v>0.01279826429656271</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1</v>
+        <v>1.256528369772915</v>
       </c>
       <c r="S15" t="n">
-        <v>7.934580313308754</v>
+        <v>2.44301137836856</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1</v>
+        <v>0.01114690858072517</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1</v>
+        <v>0.1095958125639098</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0484684457008277</v>
+        <v>0.047874708418599</v>
       </c>
       <c r="C16" t="n">
-        <v>1.041041041041041</v>
+        <v>1.011011011011011</v>
       </c>
       <c r="D16" t="n">
-        <v>1.707527534300599</v>
+        <v>1.810864942057098</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004024465786408193</v>
+        <v>0.009133313400857559</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4523559324281343</v>
+        <v>0.4369767188848488</v>
       </c>
       <c r="H16" t="n">
-        <v>1.27294569415276</v>
+        <v>1.270990975500539</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4560380492385749</v>
+        <v>0.4517466209642053</v>
       </c>
       <c r="J16" t="n">
-        <v>10.9449666741644</v>
+        <v>11.25061778296896</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9990619596907651</v>
+        <v>0.9938899665900732</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.988479755746325</v>
       </c>
       <c r="M16" t="n">
-        <v>7.743511285224371</v>
+        <v>0.2233445718718858</v>
       </c>
       <c r="N16" t="n">
+        <v>0.05331213637914365</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.279894505282085</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.551602438533227</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.1</v>
       </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.9172606036896926</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.08382295758787124</v>
-      </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.965538487502086</v>
       </c>
       <c r="S16" t="n">
-        <v>7.852206412689657</v>
+        <v>8.034987832677606</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09936722629884845</v>
+        <v>0.09836828524527914</v>
       </c>
       <c r="U16" t="n">
-        <v>1.323550882771178</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04737682484935352</v>
+        <v>0.0467127232710246</v>
       </c>
       <c r="C17" t="n">
-        <v>0.990990990990991</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D17" t="n">
-        <v>1.850514888724799</v>
+        <v>1.682599443299324</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005801099509970715</v>
+        <v>0.002308361800373684</v>
       </c>
       <c r="G17" t="n">
-        <v>0.42719262220417</v>
+        <v>0.4256545214475402</v>
       </c>
       <c r="H17" t="n">
-        <v>1.267183979339672</v>
+        <v>1.228234162441085</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4489319477587627</v>
+        <v>0.4490661750714894</v>
       </c>
       <c r="J17" t="n">
-        <v>11.60408788996537</v>
+        <v>11.69378003731779</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9964441338735569</v>
+        <v>1.000369210503891</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>6.364571200673878</v>
+        <v>6.2940008547977</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07113390104835654</v>
+        <v>0.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1691918745122819</v>
+        <v>0.1265112630627358</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8317729661890236</v>
+        <v>3.488216914945649</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09328983284420578</v>
+        <v>0.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.672552047716101</v>
+        <v>1.102928720652337</v>
       </c>
       <c r="S17" t="n">
-        <v>7.183689311300766</v>
+        <v>9.903004293993691</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0810331306257898</v>
+        <v>0.004637749834114416</v>
       </c>
       <c r="U17" t="n">
-        <v>1.636704080656996</v>
+        <v>1.596150530685572</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07821935383403376</v>
+        <v>0.04764559205675442</v>
       </c>
       <c r="C18" t="n">
-        <v>1.981981981981982</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D18" t="n">
-        <v>5.13416105598985</v>
+        <v>1.742652649502787</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5005005005005005</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003655635523779557</v>
+        <v>0.01045140720742956</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3206233469828664</v>
+        <v>0.4349502118703545</v>
       </c>
       <c r="H18" t="n">
-        <v>1.13850279276762</v>
+        <v>1.287134747889652</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4123037106644639</v>
+        <v>0.4505506431510783</v>
       </c>
       <c r="J18" t="n">
-        <v>14.96578190992867</v>
+        <v>11.35014501124202</v>
       </c>
       <c r="K18" t="n">
-        <v>1.018064840517993</v>
+        <v>0.9917343809946676</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1</v>
+        <v>1.06951591682848</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001</v>
+        <v>0.08127495706218006</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3181748995714261</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5816758521706711</v>
+        <v>1.178147721792696</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05288102553078107</v>
+        <v>0.08204161467953516</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.935554793889391</v>
       </c>
       <c r="S18" t="n">
-        <v>9.075497495885662</v>
+        <v>10</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001</v>
+        <v>0.001047010933920949</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1</v>
+        <v>1.533555240912937</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04453415780036089</v>
+        <v>0.0503764702925517</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9509509509509509</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D19" t="n">
-        <v>1.449571811326962</v>
+        <v>1.994417209342387</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005012553087226763</v>
+        <v>0.01282581411192798</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3977017956700299</v>
+        <v>0.4679265877954581</v>
       </c>
       <c r="H19" t="n">
-        <v>1.211835641593565</v>
+        <v>1.341961444315373</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4416088492907737</v>
+        <v>0.4585492076369193</v>
       </c>
       <c r="J19" t="n">
-        <v>12.23137774825481</v>
+        <v>10.81140334774775</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9965425691162483</v>
+        <v>0.9816501557160614</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9772803844602101</v>
+        <v>8.777788190669963</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05272097528061073</v>
+        <v>0.001007532813499914</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4504494752523872</v>
+        <v>1.999991125824991</v>
       </c>
       <c r="P19" t="n">
-        <v>9.467333895735425</v>
+        <v>0.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09605682545574085</v>
+        <v>0.001</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1357178473407595</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.1</v>
       </c>
-      <c r="T19" t="n">
-        <v>0.09975217414486104</v>
-      </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.381365148492012</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04791693355850216</v>
+        <v>0.04624573256015087</v>
       </c>
       <c r="C20" t="n">
-        <v>1.031031031031031</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D20" t="n">
-        <v>1.635486295445983</v>
+        <v>1.244347073372829</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004825716139115817</v>
+        <v>0.009035567231252277</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4459581912227896</v>
+        <v>0.4288067444634825</v>
       </c>
       <c r="H20" t="n">
-        <v>1.265812087039797</v>
+        <v>1.277264490350109</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4546212173228774</v>
+        <v>0.4488025208952681</v>
       </c>
       <c r="J20" t="n">
-        <v>11.01180766058233</v>
+        <v>11.53111327129344</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9985081800427964</v>
+        <v>0.9935417989469614</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.006867904615339</v>
+        <v>0.795567082723742</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06878326328569523</v>
+        <v>0.04098553789866158</v>
       </c>
       <c r="O20" t="n">
-        <v>1.835238153300584</v>
+        <v>0.4028432652878356</v>
       </c>
       <c r="P20" t="n">
-        <v>1.665395649531448</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06438329032154398</v>
+        <v>0.001</v>
       </c>
       <c r="R20" t="n">
-        <v>1.669320068922133</v>
+        <v>0.4280099223973384</v>
       </c>
       <c r="S20" t="n">
-        <v>7.258807492208048</v>
+        <v>0.1027946499745213</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05304978258463924</v>
+        <v>0.001</v>
       </c>
       <c r="U20" t="n">
-        <v>1.110378748519208</v>
+        <v>0.6738408321123214</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05060978003462012</v>
+        <v>0.07522022537236961</v>
       </c>
       <c r="C21" t="n">
-        <v>1.051051051051051</v>
+        <v>1.881881881881882</v>
       </c>
       <c r="D21" t="n">
-        <v>1.887504301503764</v>
+        <v>5.262399402248796</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01539004855918823</v>
+        <v>0.0003631462028987387</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4745211751787372</v>
+        <v>0.3026393779433085</v>
       </c>
       <c r="H21" t="n">
-        <v>1.37937097029526</v>
+        <v>1.080318634398722</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4561489373413393</v>
+        <v>0.4120675764198232</v>
       </c>
       <c r="J21" t="n">
-        <v>11.09734488861124</v>
+        <v>14.8993908532153</v>
       </c>
       <c r="K21" t="n">
-        <v>0.99846105891504</v>
+        <v>1.015116095486806</v>
       </c>
       <c r="L21" t="n">
-        <v>4.998928453806894</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1886625703191243</v>
+        <v>0.4210504456750353</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="O21" t="n">
-        <v>1.577342950764831</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05610684772386634</v>
+        <v>0.09725377647030392</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1</v>
+        <v>0.847773779077315</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1050440523539314</v>
+        <v>0.4352059055142741</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01141402114248371</v>
+        <v>0.002381917981610694</v>
       </c>
       <c r="U21" t="n">
-        <v>1.074090356061165</v>
+        <v>1.981445565087248</v>
       </c>
     </row>
   </sheetData>
